--- a/biology/Zoologie/Acerodon/Acerodon.xlsx
+++ b/biology/Zoologie/Acerodon/Acerodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Acerodon regroupe plusieurs espèces de chauve-souris de la famille des Pteropodidae que l'on rencontre dans les Philippines et en Indonésie (îles Talaud, Sulawesi et petites îles de la Sonde). Elles sont appelées roussette ou renard volant en français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acerodon regroupe plusieurs espèces de chauve-souris de la famille des Pteropodidae que l'on rencontre dans les Philippines et en Indonésie (îles Talaud, Sulawesi et petites îles de la Sonde). Elles sont appelées roussette ou renard volant en français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acerodon celebensis (Peters, 1867) − roussette de Célèbes ou de Sulawesi
 Acerodon humilis (K. Andersen, 1909) − roussette de Talaud
